--- a/allStrategies.xlsx
+++ b/allStrategies.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K36"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,1279 +360,1459 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Strategy</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Return</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>ExcessReturn</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>StandardDeviation</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>SharpRatio</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>MaximumDrawdown</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>TrackingError</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>InformationRatio</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Avg.NumberOfStocks</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>top10</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Turnover</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>EffectiveN</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>eval_BRIC_Benchmark</t>
+        </is>
+      </c>
+      <c r="B2">
         <v>7.221512579950502</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>5.125425623428761</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>25.36572134501235</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>0.2020611026083266</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>-55.96508321154508</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>0</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>829.9253731343283</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>0.2823625305841735</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>0.001627966368016675</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>111.3815828864342</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>MOM_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B3">
         <v>11.66291299217745</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>9.454162992177448</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>36.71656087202198</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.2574904285052885</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>-72.0842129785963</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>25.23357302247638</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.1878365750820973</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>134</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.6415674752662304</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.3024253977691956</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>25.61089283447523</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>MOC_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B4">
         <v>10.87158647044355</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>8.662836470443544</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>31.16935527815394</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>0.277927996685744</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>-56.41643427529385</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>15.20212569637759</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.2574676718980009</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>202.9813432835821</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.5501191349551386</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>0.2687164506822576</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>36.17066917804909</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>VAL_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B5">
         <v>9.499544585657198</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>7.290794585657194</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>25.45931969919428</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>0.286370361494299</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>-32.54761623017893</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>8.397756861262</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.2955979879128112</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>414.5111940298507</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>0.4178550281216134</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>0.05977924280497839</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>49.96039383157697</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GRO_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B6">
         <v>14.60928963242551</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>12.40053963242552</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>29.56514247013592</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>0.4194310798587033</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>-50.38965010840877</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>10.71417979472768</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.7293388813489982</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>410.2388059701493</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>0.3202190282406853</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>0.09209764756197059</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>99.12780191402598</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>VOL_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B7">
         <v>5.918498047105514</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>3.70974804710551</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>23.82098401638881</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>0.1557344585157863</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>-47.72346764852188</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>13.49964805239169</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>-0.09291976932306768</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>176.4589552238806</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>0.5086327281991349</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>0.09843042360140999</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>36.78121488639322</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>MOM_VAL_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B8">
         <v>14.3339717398561</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>12.12522173985611</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>37.54091201904407</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>0.3229868718614276</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>-100.6062592290729</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>29.80047857930581</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.2525791540663729</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>68.03846153846153</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>0.7693240142884916</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>0.2886017532671256</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>12.29050883854336</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>MOM_GRO_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B9">
         <v>16.71590885233388</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>14.50715885233386</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>36.92843839902994</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>0.3928451751892911</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-62.36975457556031</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>21.04449857548492</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.4757765660250424</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>88.26691729323308</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>0.6573654044690539</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>0.3174531995747912</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>26.55982776712746</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>MOM_VOL_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B10">
         <v>9.141212435087359</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>6.932462435087358</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>24.476054582206</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>0.2832344735873907</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>-44.90929352926816</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>19.74026065132849</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.106809543152506</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>31.3508064516129</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>0.8490240779370171</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>0.3150299266527592</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>8.803889859874927</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>MOC_VAL_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B11">
         <v>11.97219158415407</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>9.763441584154069</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>32.64746521191209</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.2990566502109843</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>-50.89144205024572</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>19.73263468331428</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.2565553714520815</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>100.5298507462687</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>0.7013398128234797</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>0.2628782791368626</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>16.64936705497646</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>MOC_GRO_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B12">
         <v>16.76817691257247</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>14.55942691257246</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>34.35885849657001</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>0.4237459435395941</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-46.54653057117633</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>17.3814431471578</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.5791820486554972</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>131.0335820895522</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>0.5693935017001766</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>0.2824804344379458</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>37.6404169028726</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>MOC_VOL_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B13">
         <v>11.19122348461839</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>8.982473484618401</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>28.53959343869189</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>0.3147372615490949</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-68.25908796918941</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>22.37432043101792</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.1898421987699481</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>46.09961685823755</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>0.7838253830652705</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>0.2989933520754065</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>11.9867789088738</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>VAL_VOL_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B14">
         <v>5.063616392379755</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>2.854866392379742</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>32.83350095925893</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>0.08694980154331301</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-92.94624153057322</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>26.18175314651037</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-0.08198208092797078</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>98.23863636363636</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>0.6386725300199379</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>0.1131765051564075</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>22.75476040715297</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>GRO_VOL_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B15">
         <v>13.3284796164819</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>11.1197296164819</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>23.0861461802188</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>0.481662445073217</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>-33.40460154252113</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>14.13189062376489</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>0.4583796089692505</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>76.86194029850746</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>0.6185408288995958</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>0.1332184076529595</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>23.70195002084871</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>MOM_VAL_VOL_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B16">
         <v>17.0169310746327</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>14.8081810746327</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>33.20740034799218</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>0.4459301516966847</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-46.68804291331799</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>26.81498420395081</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.3851051834462426</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>16.73831775700934</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.9279121667505886</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>0.3386964549019445</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>5.084182110181385</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>MOM_GRO_VOL_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B17">
         <v>11.28183441042189</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>9.073084410421885</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>26.08121220033499</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>0.3478781714871884</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-55.30074379195207</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>19.31952990389495</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>0.2247539530972556</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>20.26382978723404</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.8832880429668246</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>0.3072468391425319</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>7.759271178135403</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>MOC_VAL_VOL_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B18">
         <v>14.84191960952833</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>12.63316960952833</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>39.49422297224714</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>0.319873861511486</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>-72.42443404974111</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>31.20676687996296</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.2581815752007717</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>24.61904761904762</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>0.8861402184222812</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>0.3021603973292029</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>6.631772934286571</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>MOC_GRO_VOL_BRIC_m</t>
+        </is>
+      </c>
+      <c r="B19">
         <v>16.68457534172798</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>14.47582534172799</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>23.08405067656526</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>0.6270920794860205</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-35.66569052753818</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>18.39412007079444</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>0.5425529131265539</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>28.23921568627451</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>0.835707557016417</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>0.284818001152426</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>10.19571882144901</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>MOM_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B20">
         <v>8.713144656193144</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>6.776705079428699</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>32.94385716487879</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.2057046643176105</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-84.81576190041855</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>24.15144736307531</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.06880617858810401</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>187.3481481481481</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.4578168281584797</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.2149265552339778</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>72.08330718291788</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MOC_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B21">
         <v>9.063660639821604</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>7.127216713699024</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>27.4449808190341</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2596910801539361</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-60.4359854400679</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>16.2399788149138</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.1248477373361232</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>270.2222222222222</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.3684937356234085</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.1794276328981546</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>102.0325745090654</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>VAL_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B22">
         <v>8.374392062753795</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>6.4385746872045</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>21.77621941475283</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2956699950792437</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-27.73420715575595</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>8.72843773185418</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.1498879723439222</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>435.8851851851852</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.2691724006478584</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.04861135313156136</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>148.0086707036229</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>GRO_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B23">
         <v>7.037569227693131</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>5.10145929730853</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>24.09619972608045</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.2117121934288659</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>-52.95883977415895</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>8.145169301483668</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>-0.01063915683695275</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>461.0074074074074</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.1921502810473103</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.06711708472617958</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>292.8412296652193</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>VOL_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B24">
         <v>5.771214522611748</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>3.835132780403301</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>20.69781057524806</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>0.1852917131722923</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-37.14377740205212</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>13.54409836467064</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-0.1039619841094215</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>203.7074074074074</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>0.3369393475121907</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>0.06041045179659235</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>106.8865147912355</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>MOM_VAL_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B25">
         <v>10.693210890788</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>8.727046974939528</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>34.65953881936354</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>0.2517935111722812</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-84.93204609991105</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>28.33611460472627</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>0.1315609046373899</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>94.65168539325843</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>0.6091545797219496</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>0.2245145230164839</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>33.28515724084089</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>MOM_GRO_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B26">
         <v>8.16487847349234</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>6.228514460241734</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>30.88240395239902</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>0.2016848969996679</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>-46.24686651412333</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>17.03456484590826</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>0.06396787751631128</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>126.4814814814815</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.4626094514968283</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.2119384072130028</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>76.1245056853988</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>MOM_VOL_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B27">
         <v>6.346032495437651</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>4.353417602681967</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>27.2942245913717</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>0.1594995889371475</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-79.25555912175308</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>23.08472850740752</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>-0.03501281291239919</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>44.20152091254753</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>0.6785866182721088</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>0.2260954762348905</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>23.31718728179869</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>MOC_VAL_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B28">
         <v>10.4232530557288</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>8.486890641979205</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>30.18057749524145</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>0.2812037192899084</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>-64.19296404280988</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>20.98891354834349</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>0.1641928597749091</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>135.4296296296296</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.5284095089469153</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>0.1784758892911482</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>45.72956711656754</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>MOC_GRO_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B29">
         <v>8.390519643908256</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>6.454126313015187</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>29.34578637980127</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>0.2199336637118564</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>-54.83577115484368</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>15.07783476024785</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>0.08788507333868095</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>179.8962962962963</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.365303956458049</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>0.1795021940046066</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>109.5671033159064</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>MOC_VOL_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B30">
         <v>7.265094222564469</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>5.315829571040587</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>27.06303951044654</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>0.1964239666793021</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>-84.61909088466648</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>22.93102927275405</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>0.006574482571081571</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>63.79104477611941</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.5878885200966271</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>0.2031926557658111</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>32.84257087690749</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>VAL_VOL_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B31">
         <v>3.205127990056956</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>1.255497299926133</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>30.11094552635192</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>0.04169571157529314</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>-104.3979554526081</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>25.16286767934564</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>-0.1623712727523935</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>114.0444444444445</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.4690078804174145</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>0.07045870112709762</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>64.93151252707614</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>GRO_VOL_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B32">
         <v>7.068000663005515</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>5.131464603337134</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>19.59750835805231</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>0.261842705183932</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>-47.38901648142104</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>15.37544024742646</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>-0.003570837100139374</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>92.82962962962964</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>0.4159939832338178</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>0.08863209783755519</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>69.09237838795805</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>MOM_VAL_VOL_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B33">
         <v>15.28359043569604</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>13.21708804990655</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>35.89983272781758</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.3681657279607621</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>-84.65441214685541</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>30.20250660391418</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.2820258016086156</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>24.32173913043478</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.800435406922393</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.2642840081475096</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>12.24358352985714</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MOM_GRO_VOL_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B34">
         <v>5.49336236019853</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>3.499962447948326</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>22.20922116008172</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.1575905081371817</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>-48.48525180156798</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>18.22037052760611</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>-0.09319261798795131</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>28.35317460317461</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.7229682868764494</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.2230949775715718</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>21.03145994378891</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>MOC_VAL_VOL_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B35">
         <v>13.43373478604719</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>11.43348536978127</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>36.88326578427559</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>0.3099911335578017</v>
       </c>
-      <c r="E35">
+      <c r="F35">
         <v>-94.41005209221396</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>30.24860917549903</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>0.2177819793691194</v>
       </c>
-      <c r="H35">
+      <c r="I35">
         <v>35.27310924369748</v>
       </c>
-      <c r="I35">
+      <c r="J35">
         <v>0.7282854395747239</v>
       </c>
-      <c r="J35">
+      <c r="K35">
         <v>0.2168982507836021</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>17.10365434859719</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>MOC_GRO_VOL_BRIC_q</t>
+        </is>
+      </c>
+      <c r="B36">
         <v>7.336968895765191</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>5.35962041047616</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>20.45469043081863</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.2620240295791003</v>
       </c>
-      <c r="E36">
+      <c r="F36">
         <v>-33.81062917471054</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>19.81326455603386</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>0.0113943520334204</v>
       </c>
-      <c r="H36">
+      <c r="I36">
         <v>38.85283018867924</v>
       </c>
-      <c r="I36">
+      <c r="J36">
         <v>0.6428717213322822</v>
       </c>
-      <c r="J36">
+      <c r="K36">
         <v>0.2094380862486453</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>28.43881676920666</v>
       </c>
     </row>
